--- a/MW3 LISTS.xlsx
+++ b/MW3 LISTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6135" windowHeight="3495" tabRatio="636" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6135" windowHeight="3495" tabRatio="636" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog 1mc" sheetId="2" r:id="rId1"/>
@@ -6252,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B703"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9006,10 +9006,10 @@
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="5">
         <v>32915</v>
       </c>
     </row>
@@ -11896,7 +11896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/MW3 LISTS.xlsx
+++ b/MW3 LISTS.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6135" windowHeight="3495" tabRatio="636" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6135" windowHeight="3495" tabRatio="636" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog 1mc" sheetId="2" r:id="rId1"/>
     <sheet name="Sound" sheetId="17" r:id="rId2"/>
     <sheet name="script name" sheetId="6" r:id="rId3"/>
-    <sheet name="notifykey" sheetId="16" r:id="rId4"/>
-    <sheet name="mod &amp; weapon" sheetId="3" r:id="rId5"/>
-    <sheet name="classname" sheetId="14" r:id="rId6"/>
-    <sheet name="script_model" sheetId="15" r:id="rId7"/>
-    <sheet name="etc" sheetId="18" r:id="rId8"/>
+    <sheet name="Gun" sheetId="19" r:id="rId4"/>
+    <sheet name="notifykey" sheetId="16" r:id="rId5"/>
+    <sheet name="mod &amp; weapon" sheetId="3" r:id="rId6"/>
+    <sheet name="classname" sheetId="14" r:id="rId7"/>
+    <sheet name="script_model" sheetId="15" r:id="rId8"/>
+    <sheet name="etc" sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">notifykey!$A$1:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">notifykey!$A$1:$A$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'script name'!$A$1:$B$703</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">script_model!$A$2:$A$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">script_model!$A$2:$A$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1306">
   <si>
     <t>uav</t>
   </si>
@@ -3835,6 +3836,290 @@
   </si>
   <si>
     <t>Dvar list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acog</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>reflex</t>
+  </si>
+  <si>
+    <t>eotech</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silencer</t>
+  </si>
+  <si>
+    <t>silencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeat</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camo</t>
+  </si>
+  <si>
+    <t>camo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopevz</t>
+  </si>
+  <si>
+    <t>silencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silencer02</t>
+  </si>
+  <si>
+    <t>silencer02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silencer03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camo02</t>
+  </si>
+  <si>
+    <t>camo03</t>
+  </si>
+  <si>
+    <t>camo04</t>
+  </si>
+  <si>
+    <t>camo05</t>
+  </si>
+  <si>
+    <t>camo06</t>
+  </si>
+  <si>
+    <t>camo07</t>
+  </si>
+  <si>
+    <t>camo08</t>
+  </si>
+  <si>
+    <t>camo09</t>
+  </si>
+  <si>
+    <t>camo10</t>
+  </si>
+  <si>
+    <t>camo11</t>
+  </si>
+  <si>
+    <t>harmhybrid</t>
+  </si>
+  <si>
+    <t>harmhybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflexsmg</t>
+  </si>
+  <si>
+    <t>iw5_fmg9_mp_akimbo</t>
+  </si>
+  <si>
+    <t>AP :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AG : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_mp412_mp_akimbo</t>
+  </si>
+  <si>
+    <t>iw5_mp5_mp_hamrhybrid_rof_silencer</t>
+  </si>
+  <si>
+    <t>iw5_m60_mp_grip</t>
+  </si>
+  <si>
+    <t>iw5_as50_mp_as50scopevz_xmags</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akimbo</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eotechsmg</t>
+  </si>
+  <si>
+    <t>reflexlmg</t>
+  </si>
+  <si>
+    <t>eotechlmg</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_ksg_mp</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akimbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_ak47_mp_gp25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3910,7 +4195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3941,8 +4226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4019,11 +4310,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4071,6 +4415,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6252,7 +6609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
@@ -11893,6 +12250,547 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="3.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="36" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>1276</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="E2" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M3" s="33" t="str">
+        <f>A3</f>
+        <v>none</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R3" s="13">
+        <v>1</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M4" s="33" t="str">
+        <f t="shared" ref="M4:M7" si="0">A4</f>
+        <v>acog</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="10" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>thermal</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="M6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>reflex</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>1264</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="M7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>eotech</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="34" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="35" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="35"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="36" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="44" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O9" s="45"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J11" s="42">
+        <v>3</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N11" s="13">
+        <v>3</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>1296</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="33" t="s">
+        <v>1295</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="10" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="E14" s="34" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="35" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -12233,7 +13131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F19"/>
   <sheetViews>
@@ -12450,7 +13348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
@@ -13016,7 +13914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K98"/>
   <sheetViews>
@@ -13991,7 +14889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/MW3 LISTS.xlsx
+++ b/MW3 LISTS.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1307">
   <si>
     <t>uav</t>
   </si>
@@ -3978,148 +3978,154 @@
     <t>reflexsmg</t>
   </si>
   <si>
+    <t>AP :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AG : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_mp5_mp_hamrhybrid_rof_silencer</t>
+  </si>
+  <si>
+    <t>iw5_m60_mp_grip</t>
+  </si>
+  <si>
+    <t>iw5_as50_mp_as50scopevz_xmags</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akimbo</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eotechsmg</t>
+  </si>
+  <si>
+    <t>reflexlmg</t>
+  </si>
+  <si>
+    <t>eotechlmg</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_ksg_mp</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akimbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_ak47_mp_gp25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iw5_ak47_mp_xmags_heartbeat_gp25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iw5_fmg9_mp_akimbo</t>
-  </si>
-  <si>
-    <t>AP :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AG : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iw5_mp412_mp_akimbo</t>
-  </si>
-  <si>
-    <t>iw5_mp5_mp_hamrhybrid_rof_silencer</t>
-  </si>
-  <si>
-    <t>iw5_m60_mp_grip</t>
-  </si>
-  <si>
-    <t>iw5_as50_mp_as50scopevz_xmags</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akimbo</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eotechsmg</t>
-  </si>
-  <si>
-    <t>reflexlmg</t>
-  </si>
-  <si>
-    <t>eotechlmg</t>
-  </si>
-  <si>
-    <t>heartbeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thermal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iw5_ksg_mp</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reflex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>akimbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gp25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iw5_ak47_mp_gp25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12285,34 +12291,34 @@
         <v>1235</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>1267</v>
+        <v>1305</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="38"/>
       <c r="I1" s="36" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>1275</v>
+        <v>1306</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
       <c r="M1" s="36" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="38"/>
       <c r="Q1" s="36" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>1274</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>1276</v>
       </c>
       <c r="S1" s="37"/>
       <c r="T1" s="38"/>
@@ -12378,28 +12384,28 @@
         <v>1251</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>1247</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>1236</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="M3" s="33" t="str">
         <f>A3</f>
@@ -12409,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1236</v>
@@ -12421,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -12444,13 +12450,13 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="10" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="M4" s="33" t="str">
         <f t="shared" ref="M4:M7" si="0">A4</f>
@@ -12462,12 +12468,12 @@
         <v>1241</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="10" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -12529,7 +12535,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="10" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q6" s="33" t="s">
         <v>1264</v>
@@ -12559,7 +12565,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="10" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="13"/>
@@ -12587,7 +12593,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="35" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
@@ -12602,26 +12608,26 @@
         <v>1265</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="38"/>
       <c r="M9" s="44" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O9" s="45"/>
       <c r="P9" s="9"/>
@@ -12672,28 +12678,28 @@
         <v>1259</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="J11" s="42">
         <v>3</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>1245</v>
@@ -12702,7 +12708,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="P11" s="43" t="s">
         <v>1237</v>
@@ -12713,12 +12719,12 @@
         <v>1260</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="10" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>1230</v>
@@ -12727,12 +12733,12 @@
       <c r="K12" s="13"/>
       <c r="L12" s="10"/>
       <c r="M12" s="33" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="10" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -12740,7 +12746,7 @@
         <v>1261</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -12752,7 +12758,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="10"/>
       <c r="M13" s="33" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -12760,27 +12766,32 @@
     </row>
     <row r="14" spans="1:20">
       <c r="E14" s="34" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="35" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="35"/>
       <c r="M14" s="34" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="35"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="17" spans="4:5">
+      <c r="E17" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
